--- a/backend/input_file/catalog.xlsx
+++ b/backend/input_file/catalog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t xml:space="preserve">Бренд</t>
   </si>
@@ -34,6 +34,21 @@
     <t xml:space="preserve">Остаток</t>
   </si>
   <si>
+    <t xml:space="preserve">Модификация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штрихкоды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полная группа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название группы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Описание</t>
   </si>
   <si>
@@ -46,55 +61,148 @@
     <t xml:space="preserve">LCD дисплей для Xiaomi Redmi 12C</t>
   </si>
   <si>
+    <t xml:space="preserve">2002000111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Xiaomi/Redmi/Poco/Дисплеи Mi/Redmi/Poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дисплеи Mi/Redmi/Poco</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCD дисплей для Xiaomi Redmi 12C с тачскрином (черный) 100% оригинал</t>
   </si>
   <si>
+    <t xml:space="preserve">https://vseplus.com/images/p/full/347856b.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Аккумулятор для Xiaomi Mi 5X/A1/Redmi S2/Note 5A/5A Prime</t>
   </si>
   <si>
+    <t xml:space="preserve">2002000222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Xiaomi/Redmi/Poco/Xiaomi аккумулятор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi аккумулятор</t>
+  </si>
+  <si>
     <t xml:space="preserve">Аккумулятор для Xiaomi Mi 5X/A1/Redmi S2/Note 5A/5A Prime (BN31) - Battery Collection (Премиум)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://vseplus.com/images/p/full/323188a.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дисплей для Xiaomi Redmi Note 11 Pro+ 5G/12 Pro 4G/12 Pro Speed</t>
   </si>
   <si>
+    <t xml:space="preserve">2000000033333</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дисплей для Xiaomi Redmi Note 11 Pro+ 5G/12 Pro 4G/12 Pro Speed (21091116UG/2209116AG) в сборе с тачскрином Черный - (OLED)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://snpmarket.com/images/catalog/xl-400203-displey-dlya-xiaomi-redmi-note-11-pro-5g-s-tachskr-69-853.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Планшет Xiaomi Redmi Pad 10.6" 2022 4/128GB Green</t>
   </si>
   <si>
+    <t xml:space="preserve">2000000044444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Xiaomi/Redmi/Poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi/Redmi/Poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSKbPJDNsqZZi__EYhiXc_qmRPAoQrHkQKWbw&amp;s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рамка дисплея для Xiaomi Redmi Note 12S</t>
   </si>
   <si>
+    <t xml:space="preserve">2000000055555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Xiaomi/Redmi/Poco/Рамки/Корпуса Mi/Redmi/Poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамки/Корпуса Mi/Redmi/Poco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рамка дисплея для Xiaomi Redmi Note 12S (23030RAC7Y) Черный (возможен дефект ЛКП)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cdn1.ozone.ru/s3/multimedia-o/6867165012.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Смартфон Redmi Note 13 8/512GB</t>
   </si>
   <si>
+    <t xml:space="preserve">2000000066666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTtIu9AJZFC0fvMAzLKaMb3uIE26b37wh5Ntg&amp;s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Шлейф для Xiaomi Redmi Note 12 4G</t>
   </si>
   <si>
+    <t xml:space="preserve">2002000077777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Xiaomi/Redmi/Poco/Xiaomi шлейфа/ платы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi шлейфа/ платы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Шлейф для Xiaomi Redmi Note 12 4G (23021RAA2Y) плата на системный разъем/микрофон</t>
   </si>
   <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4vD71qb5rhChM3k6gWXbRnsmTQkQAAXDugA&amp;s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apple Watch</t>
   </si>
   <si>
     <t xml:space="preserve">Glass+OCA Apple Watch 40mm</t>
   </si>
   <si>
+    <t xml:space="preserve">2100000088888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Apple Watch/Стекла и тачскрины Apple Watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стекла и тачскрины Apple Watch</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://images.livesklad.com/eaa85d48833b11059a6c049e58ddef5e/nomenclatures/90d6fe20-79d1-11f0-8197-7f07b10cc7c9.png</t>
   </si>
   <si>
     <t xml:space="preserve">Тачскрин Apple Watch S2/S3 42мм</t>
   </si>
   <si>
+    <t xml:space="preserve">2002000099999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://magazin-detaley.ru/image/cache/360-260/import_files/2f/2f075f75df5d11ed8dde2c4d544750bc_a88622f7df8111ed8dde2c4d544750bc.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samsung</t>
   </si>
   <si>
     <t xml:space="preserve">Чехол для Samsung S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002540099999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRoLCr4bd9L4ell1upWh4QtuohiJaYE1pY2Vg&amp;s</t>
   </si>
 </sst>
 </file>
@@ -377,10 +485,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,9 +496,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="114.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="0" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="47.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="114.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,13 +524,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>500</v>
@@ -426,16 +553,28 @@
       <c r="D2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1500</v>
@@ -443,16 +582,28 @@
       <c r="D3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>300</v>
@@ -460,16 +611,28 @@
       <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>26</v>
@@ -477,16 +640,28 @@
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>29.3</v>
@@ -494,16 +669,28 @@
       <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>28.99</v>
@@ -511,16 +698,28 @@
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1500</v>
@@ -528,16 +727,28 @@
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>250</v>
@@ -545,19 +756,28 @@
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>142</v>
@@ -565,24 +785,51 @@
       <c r="D10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>159.689</v>
+        <v>159.69</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
